--- a/CDD/Data temperatures.xlsx
+++ b/CDD/Data temperatures.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\Fuel desk\CDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\Fuel dashboard\CDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91D3B1C-F80C-4929-BE0E-5ABEB11E4FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12301EF1-FF16-45ED-8E07-43210E8C27C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{805FC610-D0B7-4151-AF7A-494C14C34CCD}"/>
   </bookViews>
@@ -485,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF6C800-FC25-4C64-B3CE-5880A9630BFD}">
-  <dimension ref="A1:E2036"/>
+  <dimension ref="A1:E2039"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2012" workbookViewId="0">
-      <selection activeCell="L2033" sqref="L2033"/>
+    <sheetView tabSelected="1" topLeftCell="A2018" workbookViewId="0">
+      <selection activeCell="F2047" sqref="F2047"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,14 +550,14 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=D","Days=A","Dts=S","cols=2;rows=2030")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=D","Days=A","Dts=S","cols=2;rows=2033")</f>
         <v>43831</v>
       </c>
       <c r="B7">
         <v>13.43</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=D","Days=A","Dts=H","cols=1;rows=2030")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=D","Days=A","Dts=H","cols=1;rows=2033")</f>
         <v>18.16</v>
       </c>
       <c r="D7">
@@ -38865,7 +38865,7 @@
         <v>35.93</v>
       </c>
       <c r="D2023">
-        <f t="shared" ref="D2023:E2036" si="56">IF(B2023&gt;18,1,0)</f>
+        <f t="shared" ref="D2023:E2038" si="56">IF(B2023&gt;18,1,0)</f>
         <v>1</v>
       </c>
       <c r="E2023">
@@ -39087,10 +39087,10 @@
         <v>45859</v>
       </c>
       <c r="B2035">
-        <v>29.32</v>
+        <v>29.9</v>
       </c>
       <c r="C2035">
-        <v>37.049999999999997</v>
+        <v>37.11</v>
       </c>
       <c r="D2035">
         <f t="shared" si="56"/>
@@ -39106,10 +39106,10 @@
         <v>45860</v>
       </c>
       <c r="B2036">
-        <v>29.32</v>
+        <v>30.28</v>
       </c>
       <c r="C2036">
-        <v>37.049999999999997</v>
+        <v>37.68</v>
       </c>
       <c r="D2036">
         <f t="shared" si="56"/>
@@ -39117,6 +39117,63 @@
       </c>
       <c r="E2036">
         <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2037" s="2">
+        <v>45861</v>
+      </c>
+      <c r="B2037">
+        <v>31.57</v>
+      </c>
+      <c r="C2037">
+        <v>37.840000000000003</v>
+      </c>
+      <c r="D2037">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="E2037">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2038" s="2">
+        <v>45862</v>
+      </c>
+      <c r="B2038">
+        <v>31.57</v>
+      </c>
+      <c r="C2038">
+        <v>37.840000000000003</v>
+      </c>
+      <c r="D2038">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="E2038">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2039" s="2">
+        <v>45863</v>
+      </c>
+      <c r="B2039">
+        <v>31.57</v>
+      </c>
+      <c r="C2039">
+        <v>37.840000000000003</v>
+      </c>
+      <c r="D2039">
+        <f t="shared" ref="D2039:E2039" si="57">IF(B2039&gt;18,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E2039">
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
     </row>

--- a/CDD/Data temperatures.xlsx
+++ b/CDD/Data temperatures.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\Fuel dashboard\CDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\Fuel desk\CDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12301EF1-FF16-45ED-8E07-43210E8C27C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DF231B-A854-4952-9AF4-6B701EDB904D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{805FC610-D0B7-4151-AF7A-494C14C34CCD}"/>
   </bookViews>
@@ -485,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF6C800-FC25-4C64-B3CE-5880A9630BFD}">
-  <dimension ref="A1:E2039"/>
+  <dimension ref="A1:E2056"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2018" workbookViewId="0">
-      <selection activeCell="F2047" sqref="F2047"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,14 +550,14 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=D","Days=A","Dts=S","cols=2;rows=2033")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=D","Days=A","Dts=S","cols=2;rows=2050")</f>
         <v>43831</v>
       </c>
       <c r="B7">
         <v>13.43</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=D","Days=A","Dts=H","cols=1;rows=2033")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=D","Days=A","Dts=H","cols=1;rows=2050")</f>
         <v>18.16</v>
       </c>
       <c r="D7">
@@ -39144,10 +39144,10 @@
         <v>45862</v>
       </c>
       <c r="B2038">
-        <v>31.57</v>
+        <v>31.52</v>
       </c>
       <c r="C2038">
-        <v>37.840000000000003</v>
+        <v>37.619999999999997</v>
       </c>
       <c r="D2038">
         <f t="shared" si="56"/>
@@ -39163,16 +39163,339 @@
         <v>45863</v>
       </c>
       <c r="B2039">
+        <v>31.32</v>
+      </c>
+      <c r="C2039">
+        <v>37.46</v>
+      </c>
+      <c r="D2039">
+        <f t="shared" ref="D2039:E2056" si="57">IF(B2039&gt;18,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E2039">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2040" s="2">
+        <v>45864</v>
+      </c>
+      <c r="B2040">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="C2040">
+        <v>37.630000000000003</v>
+      </c>
+      <c r="D2040">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="E2040">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2041" s="2">
+        <v>45865</v>
+      </c>
+      <c r="B2041">
+        <v>32.94</v>
+      </c>
+      <c r="C2041">
+        <v>38.35</v>
+      </c>
+      <c r="D2041">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="E2041">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2042" s="2">
+        <v>45866</v>
+      </c>
+      <c r="B2042">
         <v>31.57</v>
       </c>
-      <c r="C2039">
-        <v>37.840000000000003</v>
-      </c>
-      <c r="D2039">
-        <f t="shared" ref="D2039:E2039" si="57">IF(B2039&gt;18,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E2039">
+      <c r="C2042">
+        <v>38.090000000000003</v>
+      </c>
+      <c r="D2042">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="E2042">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2043" s="2">
+        <v>45867</v>
+      </c>
+      <c r="B2043">
+        <v>30.31</v>
+      </c>
+      <c r="C2043">
+        <v>38.090000000000003</v>
+      </c>
+      <c r="D2043">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="E2043">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2044" s="2">
+        <v>45868</v>
+      </c>
+      <c r="B2044">
+        <v>29.47</v>
+      </c>
+      <c r="C2044">
+        <v>38.47</v>
+      </c>
+      <c r="D2044">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="E2044">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2045" s="2">
+        <v>45869</v>
+      </c>
+      <c r="B2045">
+        <v>29.43</v>
+      </c>
+      <c r="C2045">
+        <v>38.6</v>
+      </c>
+      <c r="D2045">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="E2045">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2046" s="2">
+        <v>45870</v>
+      </c>
+      <c r="B2046">
+        <v>29.18</v>
+      </c>
+      <c r="C2046">
+        <v>37.950000000000003</v>
+      </c>
+      <c r="D2046">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="E2046">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2047" s="2">
+        <v>45871</v>
+      </c>
+      <c r="B2047">
+        <v>29.12</v>
+      </c>
+      <c r="C2047">
+        <v>37.75</v>
+      </c>
+      <c r="D2047">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="E2047">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2048" s="2">
+        <v>45872</v>
+      </c>
+      <c r="B2048">
+        <v>29.28</v>
+      </c>
+      <c r="C2048">
+        <v>37.86</v>
+      </c>
+      <c r="D2048">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="E2048">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2049" s="2">
+        <v>45873</v>
+      </c>
+      <c r="B2049">
+        <v>29.19</v>
+      </c>
+      <c r="C2049">
+        <v>38.409999999999997</v>
+      </c>
+      <c r="D2049">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="E2049">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2050" s="2">
+        <v>45874</v>
+      </c>
+      <c r="B2050">
+        <v>28.99</v>
+      </c>
+      <c r="C2050">
+        <v>37.89</v>
+      </c>
+      <c r="D2050">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="E2050">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2051" s="2">
+        <v>45875</v>
+      </c>
+      <c r="B2051">
+        <v>28.9</v>
+      </c>
+      <c r="C2051">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D2051">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="E2051">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2052" s="2">
+        <v>45876</v>
+      </c>
+      <c r="B2052">
+        <v>28.39</v>
+      </c>
+      <c r="C2052">
+        <v>38.130000000000003</v>
+      </c>
+      <c r="D2052">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="E2052">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2053" s="2">
+        <v>45877</v>
+      </c>
+      <c r="B2053">
+        <v>28.64</v>
+      </c>
+      <c r="C2053">
+        <v>38.71</v>
+      </c>
+      <c r="D2053">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="E2053">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2054" s="2">
+        <v>45878</v>
+      </c>
+      <c r="B2054">
+        <v>29.95</v>
+      </c>
+      <c r="C2054">
+        <v>39.29</v>
+      </c>
+      <c r="D2054">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="E2054">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2055" s="2">
+        <v>45879</v>
+      </c>
+      <c r="B2055">
+        <v>29.95</v>
+      </c>
+      <c r="C2055">
+        <v>39.29</v>
+      </c>
+      <c r="D2055">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="E2055">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2056" s="2">
+        <v>45880</v>
+      </c>
+      <c r="B2056">
+        <v>29.95</v>
+      </c>
+      <c r="C2056">
+        <v>39.29</v>
+      </c>
+      <c r="D2056">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="E2056">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>

--- a/CDD/Data temperatures.xlsx
+++ b/CDD/Data temperatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\Fuel desk\CDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DF231B-A854-4952-9AF4-6B701EDB904D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6251FF-689B-421C-B23D-093647FD2EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{805FC610-D0B7-4151-AF7A-494C14C34CCD}"/>
   </bookViews>
@@ -485,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF6C800-FC25-4C64-B3CE-5880A9630BFD}">
-  <dimension ref="A1:E2056"/>
+  <dimension ref="A1:E2060"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="A2050" workbookViewId="0">
+      <selection activeCell="H2059" sqref="H2059"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,14 +550,14 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=D","Days=A","Dts=S","cols=2;rows=2050")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=D","Days=A","Dts=S","cols=2;rows=2054")</f>
         <v>43831</v>
       </c>
       <c r="B7">
         <v>13.43</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=D","Days=A","Dts=H","cols=1;rows=2050")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=D","Days=A","Dts=H","cols=1;rows=2054")</f>
         <v>18.16</v>
       </c>
       <c r="D7">
@@ -39169,7 +39169,7 @@
         <v>37.46</v>
       </c>
       <c r="D2039">
-        <f t="shared" ref="D2039:E2056" si="57">IF(B2039&gt;18,1,0)</f>
+        <f t="shared" ref="D2039:E2057" si="57">IF(B2039&gt;18,1,0)</f>
         <v>1</v>
       </c>
       <c r="E2039">
@@ -39467,10 +39467,10 @@
         <v>45879</v>
       </c>
       <c r="B2055">
-        <v>29.95</v>
+        <v>31.94</v>
       </c>
       <c r="C2055">
-        <v>39.29</v>
+        <v>38.07</v>
       </c>
       <c r="D2055">
         <f t="shared" si="57"/>
@@ -39486,10 +39486,10 @@
         <v>45880</v>
       </c>
       <c r="B2056">
-        <v>29.95</v>
+        <v>31.76</v>
       </c>
       <c r="C2056">
-        <v>39.29</v>
+        <v>38.51</v>
       </c>
       <c r="D2056">
         <f t="shared" si="57"/>
@@ -39497,6 +39497,82 @@
       </c>
       <c r="E2056">
         <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2057" s="2">
+        <v>45881</v>
+      </c>
+      <c r="B2057">
+        <v>31.88</v>
+      </c>
+      <c r="C2057">
+        <v>38.450000000000003</v>
+      </c>
+      <c r="D2057">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="E2057">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2058" s="2">
+        <v>45882</v>
+      </c>
+      <c r="B2058">
+        <v>32.1</v>
+      </c>
+      <c r="C2058">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="D2058">
+        <f t="shared" ref="D2058:E2060" si="58">IF(B2058&gt;18,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E2058">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2059" s="2">
+        <v>45883</v>
+      </c>
+      <c r="B2059">
+        <v>32.1</v>
+      </c>
+      <c r="C2059">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="D2059">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="E2059">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2060" s="2">
+        <v>45884</v>
+      </c>
+      <c r="B2060">
+        <v>32.1</v>
+      </c>
+      <c r="C2060">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="D2060">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="E2060">
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
     </row>

--- a/CDD/Data temperatures.xlsx
+++ b/CDD/Data temperatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\Fuel desk\CDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6251FF-689B-421C-B23D-093647FD2EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BC4978-BD96-462B-9DD1-8CAB68CEF275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{805FC610-D0B7-4151-AF7A-494C14C34CCD}"/>
   </bookViews>
@@ -36,6 +36,9 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -485,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF6C800-FC25-4C64-B3CE-5880A9630BFD}">
-  <dimension ref="A1:E2060"/>
+  <dimension ref="A1:E2066"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2050" workbookViewId="0">
-      <selection activeCell="H2059" sqref="H2059"/>
+    <sheetView tabSelected="1" topLeftCell="A2045" workbookViewId="0">
+      <selection activeCell="O2051" sqref="O2051"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,14 +553,14 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=D","Days=A","Dts=S","cols=2;rows=2054")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=D","Days=A","Dts=S","cols=2;rows=2060")</f>
         <v>43831</v>
       </c>
       <c r="B7">
         <v>13.43</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=D","Days=A","Dts=H","cols=1;rows=2054")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","Per=D","Days=A","Dts=H","cols=1;rows=2060")</f>
         <v>18.16</v>
       </c>
       <c r="D7">
@@ -39530,7 +39533,7 @@
         <v>38.799999999999997</v>
       </c>
       <c r="D2058">
-        <f t="shared" ref="D2058:E2060" si="58">IF(B2058&gt;18,1,0)</f>
+        <f t="shared" ref="D2058:E2066" si="58">IF(B2058&gt;18,1,0)</f>
         <v>1</v>
       </c>
       <c r="E2058">
@@ -39543,10 +39546,10 @@
         <v>45883</v>
       </c>
       <c r="B2059">
-        <v>32.1</v>
+        <v>32.07</v>
       </c>
       <c r="C2059">
-        <v>38.799999999999997</v>
+        <v>38.74</v>
       </c>
       <c r="D2059">
         <f t="shared" si="58"/>
@@ -39562,16 +39565,130 @@
         <v>45884</v>
       </c>
       <c r="B2060">
-        <v>32.1</v>
+        <v>31.71</v>
       </c>
       <c r="C2060">
-        <v>38.799999999999997</v>
+        <v>37.770000000000003</v>
       </c>
       <c r="D2060">
         <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="E2060">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2061" s="2">
+        <v>45885</v>
+      </c>
+      <c r="B2061">
+        <v>29.65</v>
+      </c>
+      <c r="C2061">
+        <v>37.619999999999997</v>
+      </c>
+      <c r="D2061">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="E2061">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2062" s="2">
+        <v>45886</v>
+      </c>
+      <c r="B2062">
+        <v>29.07</v>
+      </c>
+      <c r="C2062">
+        <v>37.36</v>
+      </c>
+      <c r="D2062">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="E2062">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2063" s="2">
+        <v>45887</v>
+      </c>
+      <c r="B2063">
+        <v>29.57</v>
+      </c>
+      <c r="C2063">
+        <v>37.46</v>
+      </c>
+      <c r="D2063">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="E2063">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2064" s="2">
+        <v>45888</v>
+      </c>
+      <c r="B2064">
+        <v>31.66</v>
+      </c>
+      <c r="C2064">
+        <v>36.72</v>
+      </c>
+      <c r="D2064">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="E2064">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2065" s="2">
+        <v>45889</v>
+      </c>
+      <c r="B2065">
+        <v>31.66</v>
+      </c>
+      <c r="C2065">
+        <v>36.72</v>
+      </c>
+      <c r="D2065">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="E2065">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2066" s="2">
+        <v>45890</v>
+      </c>
+      <c r="B2066">
+        <v>31.66</v>
+      </c>
+      <c r="C2066">
+        <v>36.72</v>
+      </c>
+      <c r="D2066">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="E2066">
         <f t="shared" si="58"/>
         <v>1</v>
       </c>
